--- a/Docker/docker command.xlsx
+++ b/Docker/docker command.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Docker" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Kubernetes" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="239">
   <si>
     <t>Module</t>
   </si>
@@ -612,6 +612,150 @@
   </si>
   <si>
     <t>It will delete everything even volume also</t>
+  </si>
+  <si>
+    <t>Up custom compose file</t>
+  </si>
+  <si>
+    <t>docker-compose -f &lt;custom compose file name.yml/name.json&gt; up</t>
+  </si>
+  <si>
+    <t>We can specify .json file also</t>
+  </si>
+  <si>
+    <t>YML is a super set of JSON</t>
+  </si>
+  <si>
+    <t>docker-compose create</t>
+  </si>
+  <si>
+    <t>docker-compose rm</t>
+  </si>
+  <si>
+    <t>Up --no-start</t>
+  </si>
+  <si>
+    <t>docker-compose up --no-start</t>
+  </si>
+  <si>
+    <t>It will create container and network also</t>
+  </si>
+  <si>
+    <t>It will create only container, not network</t>
+  </si>
+  <si>
+    <t>docker-compose start</t>
+  </si>
+  <si>
+    <t>Will start container which were stopped</t>
+  </si>
+  <si>
+    <t>docker-compose stop</t>
+  </si>
+  <si>
+    <t>Will delete only container, not network</t>
+  </si>
+  <si>
+    <t>It will create everything new like container, network, volumes</t>
+  </si>
+  <si>
+    <t>docker-compose pause</t>
+  </si>
+  <si>
+    <t>docker-compose unpause</t>
+  </si>
+  <si>
+    <t>docker-compose ps</t>
+  </si>
+  <si>
+    <t>Will list all the containers</t>
+  </si>
+  <si>
+    <t>Will pause all containers in compose</t>
+  </si>
+  <si>
+    <t>Will unpause all containers in compose</t>
+  </si>
+  <si>
+    <t>Exec</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>docker-compose kill</t>
+  </si>
+  <si>
+    <t>Will kill all container in compose</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>docker-compose port &lt;service_name&gt; &lt;port_number&gt;</t>
+  </si>
+  <si>
+    <t>Will tell the port mapping of container to host</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>docker-compose logs -f</t>
+  </si>
+  <si>
+    <t>Will show current logs</t>
+  </si>
+  <si>
+    <t>docker-compose help</t>
+  </si>
+  <si>
+    <t>docker-compose exec &lt;service_name&gt; &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>docker-compose run &lt;service_name&gt; &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>Will execute command in specified running service and display output on current screen</t>
+  </si>
+  <si>
+    <t>Will create new container with specified name, run command, close container and then show output</t>
+  </si>
+  <si>
+    <t>docker-compose restart</t>
+  </si>
+  <si>
+    <t>Will restart all container specified in compose</t>
+  </si>
+  <si>
+    <t>docker-compose pull</t>
+  </si>
+  <si>
+    <t>Will pull image from docker hub</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>docker-compose version</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>docker-compose top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose scale &lt;service_name&gt;=number &lt;service_name2&gt;=number &lt;service_name3&gt;=number </t>
+  </si>
+  <si>
+    <t>Will scale the service by number which you specified</t>
+  </si>
+  <si>
+    <t>Will display running process inside container</t>
   </si>
 </sst>
 </file>
@@ -973,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1771,30 +1915,249 @@
       <c r="A98" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="2" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C121" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +2170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
